--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EB1C2-42E9-49FC-AF75-CEA5E65B4529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5492-1254-48EA-AE05-7D79DAD82093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>Passing the Web Url</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Passing the Input Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Element </t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -433,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,6 +574,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5492-1254-48EA-AE05-7D79DAD82093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C3406-AB23-4D61-AB8C-26F445BE8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="OrangeHRM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>S.No</t>
   </si>
@@ -108,7 +108,13 @@
     <t>Click</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>Close the current browser window</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -460,15 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
@@ -628,9 +635,29 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C3406-AB23-4D61-AB8C-26F445BE8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B43246-939A-4B31-B01A-2C575E5C8D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -115,19 +115,41 @@
   </si>
   <si>
     <t>LoginButton</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/</t>
+  </si>
+  <si>
+    <t>Add_Button</t>
+  </si>
+  <si>
+    <t>UserRoleSelection</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,18 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="51.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,8 +556,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -658,6 +683,48 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B43246-939A-4B31-B01A-2C575E5C8D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA41574-BBFD-474C-B849-4346269B3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>S.No</t>
   </si>
@@ -123,13 +123,46 @@
     <t>https://opensource-demo.orangehrmlive.com/</t>
   </si>
   <si>
-    <t>Add_Button</t>
-  </si>
-  <si>
     <t>UserRoleSelection</t>
   </si>
   <si>
     <t>Dropdown</t>
+  </si>
+  <si>
+    <t>ScrollDownEND</t>
+  </si>
+  <si>
+    <t>ScrollUpHOME</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CopyContent</t>
+  </si>
+  <si>
+    <t>https://www.filemail.com/share/upload-file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nil</t>
+  </si>
+  <si>
+    <t>AddFile</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>C:\Users\Lokesh\Desktop\STUB Data.txt</t>
+  </si>
+  <si>
+    <t>JumbTab</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -172,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -719,12 +753,124 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
         <v>7</v>
       </c>
     </row>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA41574-BBFD-474C-B849-4346269B3787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC2D73-FAF4-402D-98BC-7AEBB09C32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>S.No</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Opening the Web Browser</t>
-  </si>
-  <si>
     <t>Nil</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>OpenBrowser</t>
-  </si>
-  <si>
     <t>Keywords</t>
   </si>
   <si>
@@ -75,15 +69,6 @@
     <t>GetCurrentURL</t>
   </si>
   <si>
-    <t>Get the Title of the Page</t>
-  </si>
-  <si>
-    <t>Get the Current Web Url</t>
-  </si>
-  <si>
-    <t>Passing the Web Url</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -99,21 +84,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Passing the Input Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Element </t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
-    <t>Close the current browser window</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>LoginButton</t>
   </si>
   <si>
@@ -144,12 +117,6 @@
     <t>CopyContent</t>
   </si>
   <si>
-    <t>https://www.filemail.com/share/upload-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nil</t>
-  </si>
-  <si>
     <t>AddFile</t>
   </si>
   <si>
@@ -163,13 +130,28 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>InvokeBrowser</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FileUpload</t>
+  </si>
+  <si>
+    <t>https://ps.uci.edu/~franklin/doc/file_upload.html</t>
+  </si>
+  <si>
+    <t>Edge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,16 +166,29 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,16 +196,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" customWidth="1"/>
     <col min="4" max="4" width="51.54296875" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
@@ -541,337 +558,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FC2D73-FAF4-402D-98BC-7AEBB09C32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7376E94-69C2-47BF-A421-0D953429B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -108,9 +108,6 @@
     <t>ScrollUpHOME</t>
   </si>
   <si>
-    <t>Quit</t>
-  </si>
-  <si>
     <t>NewTab</t>
   </si>
   <si>
@@ -144,7 +141,19 @@
     <t>https://ps.uci.edu/~franklin/doc/file_upload.html</t>
   </si>
   <si>
-    <t>Edge</t>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>TryLogout</t>
+  </si>
+  <si>
+    <t>MouseClick</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +220,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +248,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,10 +604,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -729,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -787,7 +808,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -803,10 +824,10 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -822,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
@@ -841,17 +862,17 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -860,17 +881,17 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>5</v>
@@ -883,10 +904,10 @@
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
@@ -899,10 +920,10 @@
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -914,14 +935,34 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -959,7 +1000,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
@@ -968,10 +1009,15 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4DC76DBA-D34A-4C3F-878A-78FD8CA0460C}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/UI_001/XL/Page_1.xlsx
+++ b/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7376E94-69C2-47BF-A421-0D953429B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA078F1C-FA2F-4169-9FE6-B1C63A1E3B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>S.No</t>
   </si>
@@ -114,9 +114,6 @@
     <t>CopyContent</t>
   </si>
   <si>
-    <t>AddFile</t>
-  </si>
-  <si>
     <t>AddButton</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>FileUpload</t>
   </si>
   <si>
-    <t>https://ps.uci.edu/~franklin/doc/file_upload.html</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -150,17 +144,38 @@
     <t>TryLogout</t>
   </si>
   <si>
-    <t>MouseClick</t>
-  </si>
-  <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/upload</t>
+  </si>
+  <si>
+    <t>ChooseFile</t>
+  </si>
+  <si>
+    <t>UploadFile</t>
+  </si>
+  <si>
+    <t>UsernameField</t>
+  </si>
+  <si>
+    <t>lokeshwaran</t>
+  </si>
+  <si>
+    <t>ActionsClick</t>
+  </si>
+  <si>
+    <t>ActionsInputPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,21 +184,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +239,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,24 +334,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2C384-F860-427A-A8E8-D7F2F2161104}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,10 +787,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -617,403 +800,489 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="29">
+        <v>17</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="E21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="12">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="A28" s="23">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{4DC76DBA-D34A-4C3F-878A-78FD8CA0460C}">
       <formula1>$H$2:$H$4</formula1>
     </dataValidation>
